--- a/05_Hardware/TK500_Driver/TK500_Driver/Project Outputs/BOM/Bill of Materials-TK500_Driver.xlsx
+++ b/05_Hardware/TK500_Driver/TK500_Driver/Project Outputs/BOM/Bill of Materials-TK500_Driver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\tesla-driver\05_Hardware\TK500_Driver\TK500_Driver\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EEB2ECC-A9D3-47F7-AAC5-28B3E7D20A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8C19F3-B79D-49A2-BEBB-2DB518893BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{71F8D109-5A91-4027-B5B9-54C4E5A84470}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{CB3B97B8-2216-4801-B450-0B54E1BB9393}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-TK500_Driver" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="417">
   <si>
     <t>Line #</t>
   </si>
@@ -123,186 +123,207 @@
     <t>X7R 50V 5%</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C53000</t>
-  </si>
-  <si>
-    <t>TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc, TK516_LINREG-PSU.PcbDoc, TK512_Optisk_Mottaker.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C12, C53000</t>
+  </si>
+  <si>
+    <t>TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc, TK516_LINREG-PSU.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>Multicomp, Multikomp</t>
+  </si>
+  <si>
+    <t>1759122</t>
+  </si>
+  <si>
+    <t>3290</t>
+  </si>
+  <si>
+    <t>330uF</t>
+  </si>
+  <si>
+    <t>25V elektrolytt</t>
+  </si>
+  <si>
+    <t>C1, C6</t>
+  </si>
+  <si>
+    <t>TK516_LINREG-PSU.PcbDoc</t>
+  </si>
+  <si>
+    <t>Rubycon</t>
+  </si>
+  <si>
+    <t>2346202</t>
+  </si>
+  <si>
+    <t>5154</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>TK512_Optisk_Mottaker.PcbDoc</t>
+  </si>
+  <si>
+    <t>Multicomp</t>
+  </si>
+  <si>
+    <t>1759454</t>
+  </si>
+  <si>
+    <t>3687</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>TK513_Limiter.PcbDoc</t>
+  </si>
+  <si>
+    <t>2310598</t>
+  </si>
+  <si>
+    <t>3316</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>X7R 25V 10%</t>
+  </si>
+  <si>
+    <t>C2, C8</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>3013426</t>
+  </si>
+  <si>
+    <t>5155</t>
+  </si>
+  <si>
+    <t>47pF</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>WALSIN</t>
+  </si>
+  <si>
+    <t>2496905</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>4164</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>X5R 10V 10%</t>
+  </si>
+  <si>
+    <t>3013462</t>
+  </si>
+  <si>
+    <t>3114</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>X5R 6.3V 10%</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>2320852</t>
+  </si>
+  <si>
+    <t>5303</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>1735541</t>
+  </si>
+  <si>
+    <t>4858</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>1848439</t>
+  </si>
+  <si>
+    <t>25V 2.5mm pitch</t>
+  </si>
+  <si>
+    <t>4844</t>
+  </si>
+  <si>
+    <t>2200uF</t>
+  </si>
+  <si>
+    <t>6.3V, Elektrolytt, 5mm lead spacing</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>2627680</t>
+  </si>
+  <si>
+    <t>5192</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>1457420</t>
+  </si>
+  <si>
+    <t>10V 10% Tantalum</t>
+  </si>
+  <si>
+    <t>C8, C9, C10, C11</t>
+  </si>
+  <si>
+    <t>X7R 50V</t>
+  </si>
+  <si>
+    <t>C10, C11</t>
+  </si>
+  <si>
+    <t>TK514_Interrupter.PcbDoc</t>
   </si>
   <si>
     <t>Multikomp</t>
   </si>
   <si>
-    <t>1759122</t>
-  </si>
-  <si>
-    <t>3290</t>
-  </si>
-  <si>
-    <t>330uF</t>
-  </si>
-  <si>
-    <t>25V elektrolytt</t>
-  </si>
-  <si>
-    <t>C1, C6</t>
-  </si>
-  <si>
-    <t>TK516_LINREG-PSU.PcbDoc</t>
-  </si>
-  <si>
-    <t>Rubycon</t>
-  </si>
-  <si>
-    <t>2346202</t>
-  </si>
-  <si>
-    <t>3687</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>C2, C3, C4</t>
-  </si>
-  <si>
-    <t>TK513_Limiter.PcbDoc, TK512_Optisk_Mottaker.PcbDoc</t>
-  </si>
-  <si>
-    <t>2310598</t>
-  </si>
-  <si>
-    <t>3316</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>C2, C8</t>
-  </si>
-  <si>
-    <t>5154</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>X7R 50V</t>
-  </si>
-  <si>
-    <t>C2, C10, C11</t>
-  </si>
-  <si>
-    <t>TK512_Optisk_Mottaker.PcbDoc, TK514_Interrupter.PcbDoc</t>
-  </si>
-  <si>
-    <t>1759454</t>
-  </si>
-  <si>
-    <t>5155</t>
-  </si>
-  <si>
-    <t>47pF</t>
-  </si>
-  <si>
-    <t>NP0 50V 5%</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>TK512_Optisk_Mottaker.PcbDoc</t>
-  </si>
-  <si>
-    <t>4164</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>X5R 10V 10%</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>3114</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>X5R 6.3V 10%</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>2320852</t>
-  </si>
-  <si>
-    <t>5303</t>
-  </si>
-  <si>
-    <t>X7R 50V 10%</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>1735541</t>
-  </si>
-  <si>
-    <t>4858</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>25V 2.5mm pitch</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>TK512_Optisk_Mottaker.PcbDoc, TK513_Limiter.PcbDoc</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>1848439</t>
-  </si>
-  <si>
-    <t>4844</t>
-  </si>
-  <si>
-    <t>2200uF</t>
-  </si>
-  <si>
-    <t>6.3V, Elektrolytt</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>5192</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>10V 10% Tantalum</t>
-  </si>
-  <si>
-    <t>Kemet</t>
-  </si>
-  <si>
-    <t>1457420</t>
-  </si>
-  <si>
     <t>5059</t>
   </si>
   <si>
@@ -312,9 +333,6 @@
     <t>C13, C14</t>
   </si>
   <si>
-    <t>TK514_Interrupter.PcbDoc</t>
-  </si>
-  <si>
     <t>1845762</t>
   </si>
   <si>
@@ -327,9 +345,6 @@
     <t>C15</t>
   </si>
   <si>
-    <t>Multicomp</t>
-  </si>
-  <si>
     <t>2627092</t>
   </si>
   <si>
@@ -339,6 +354,9 @@
     <t>15ETX06</t>
   </si>
   <si>
+    <t>DIODE, HYPERFAST, 15A, 600V</t>
+  </si>
+  <si>
     <t>D1, D2</t>
   </si>
   <si>
@@ -375,6 +393,9 @@
     <t>7429304</t>
   </si>
   <si>
+    <t>Volume Production</t>
+  </si>
+  <si>
     <t>4485</t>
   </si>
   <si>
@@ -387,9 +408,6 @@
     <t>D1, D2, D7</t>
   </si>
   <si>
-    <t>TK514_Interrupter.PcbDoc, TK512_Optisk_Mottaker.PcbDoc</t>
-  </si>
-  <si>
     <t>Taiwan Semiconductor</t>
   </si>
   <si>
@@ -420,19 +438,28 @@
     <t>SMD LED Red</t>
   </si>
   <si>
+    <t>D1, D3, D51000, D51001, D51002, D51003, D51004, D51005, D51006, D51007, D51008, D51009, D51010</t>
+  </si>
+  <si>
+    <t>TK512_Optisk_Mottaker.PcbDoc, TK510_Signalbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>Avago</t>
+  </si>
+  <si>
+    <t>8554641</t>
+  </si>
+  <si>
     <t>SMD</t>
   </si>
   <si>
-    <t>D1, D3, D51000, D51001, D51002, D51003, D51004, D51005, D51006, D51007, D51008, D51009, D51010, D53000, D53001, D53002</t>
-  </si>
-  <si>
-    <t>TK512_Optisk_Mottaker.PcbDoc, TK516_LINREG-PSU.PcbDoc, TK510_Signalbakplan.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>Avago</t>
-  </si>
-  <si>
-    <t>8554641</t>
+    <t>D1, D53000, D53001, D53002</t>
+  </si>
+  <si>
+    <t>TK516_LINREG-PSU.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
   <si>
     <t>5305</t>
@@ -471,9 +498,6 @@
     <t>ON Semiconductor / Fairchild</t>
   </si>
   <si>
-    <t>Volume Production</t>
-  </si>
-  <si>
     <t>3264</t>
   </si>
   <si>
@@ -555,97 +579,109 @@
     <t>PCIeX1-GF-2D-1000-1K-O36</t>
   </si>
   <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>PCB feature</t>
+  </si>
+  <si>
     <t>PCI express PCB kortkankonnektor</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>TK511_Blindkort.PcbDoc, TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc, TK516_LINREG-PSU.PcbDoc</t>
+  </si>
+  <si>
+    <t>PCB feature, [NoParam]</t>
+  </si>
+  <si>
+    <t>3221</t>
+  </si>
+  <si>
+    <t>MPTC-02-16-02-01-03-L-RA-SD</t>
+  </si>
+  <si>
+    <t>SAMTEC Connector</t>
+  </si>
+  <si>
+    <t>TK531_Utgangstrinn.PcbDoc, TK532_Kondensatorkort.PcbDoc</t>
+  </si>
+  <si>
+    <t>SAMTEC</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>200-MPTC0216213LRASD</t>
+  </si>
+  <si>
+    <t>4473</t>
+  </si>
+  <si>
+    <t>B3B-XH-A (LF)(SN)</t>
+  </si>
+  <si>
+    <t>JST 3pin (pris pr. stk.)</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4, J5, J6</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>1516277</t>
+  </si>
+  <si>
+    <t>B3B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>RSComponents</t>
+  </si>
+  <si>
+    <t>8201557P</t>
+  </si>
+  <si>
+    <t>3259</t>
+  </si>
+  <si>
+    <t>Header 2X17 Shrouded</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>J2, J7</t>
+  </si>
+  <si>
+    <t>TK511_Blindkort.PcbDoc, TK502_Frontpanel_LEDs.PcbDoc</t>
+  </si>
+  <si>
+    <t>Amphenol</t>
+  </si>
+  <si>
+    <t>2215313</t>
+  </si>
+  <si>
+    <t>5095</t>
+  </si>
+  <si>
+    <t>Header 1x3</t>
+  </si>
+  <si>
+    <t>2,54mm pitch</t>
+  </si>
+  <si>
+    <t>J3, J4, J5, J6, J7</t>
   </si>
   <si>
     <t>TK511_Blindkort.PcbDoc</t>
   </si>
   <si>
-    <t>TK512_Optisk_Mottaker.PcbDoc, TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc, TK516_LINREG-PSU.PcbDoc</t>
-  </si>
-  <si>
-    <t>3221</t>
-  </si>
-  <si>
-    <t>MPTC-02-16-02-01-03-L-RA-SD</t>
-  </si>
-  <si>
-    <t>SAMTEC Connector</t>
-  </si>
-  <si>
-    <t>TK531_Utgangstrinn.PcbDoc, TK532_Kondensatorkort.PcbDoc</t>
-  </si>
-  <si>
-    <t>SAMTEC</t>
-  </si>
-  <si>
-    <t>Samtec</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t>200-MPTC0216213LRASD</t>
-  </si>
-  <si>
-    <t>4473</t>
-  </si>
-  <si>
-    <t>B3B-XH-A (LF)(SN)</t>
-  </si>
-  <si>
-    <t>JST 3pin (pris pr. stk.)</t>
-  </si>
-  <si>
-    <t>J1, J2, J3, J4, J5, J6</t>
-  </si>
-  <si>
-    <t>JST</t>
-  </si>
-  <si>
-    <t>1516277</t>
-  </si>
-  <si>
-    <t>B3B-XH-A(LF)(SN)</t>
-  </si>
-  <si>
-    <t>3259</t>
-  </si>
-  <si>
-    <t>Header 2X17 Shrouded</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>J2, J7, J51027</t>
-  </si>
-  <si>
-    <t>TK511_Blindkort.PcbDoc, TK502_Frontpanel_LEDs.PcbDoc, TK510_Signalbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>Amphenol</t>
-  </si>
-  <si>
-    <t>2215313</t>
-  </si>
-  <si>
-    <t>5095</t>
-  </si>
-  <si>
-    <t>Header 1x3</t>
-  </si>
-  <si>
-    <t>2,54mm pitch</t>
-  </si>
-  <si>
-    <t>J3, J4, J5, J6, J7</t>
+    <t>3690124</t>
   </si>
   <si>
     <t>3222</t>
@@ -672,61 +708,58 @@
     <t>B2B-XH-A (LF)(SN)</t>
   </si>
   <si>
+    <t>J51006, J51012, J51013, J51014, J51015, J51016, J51017, J51021, J51022, J51023, J51024, J51025, J51026, J51029, J51030, J51031, J51032, J51033, J51034, J51035, J51036, J51037, J51038, J51039, J51040, J51041, J51042, J51043, J51044, J51045, J51046, J51047, J51048, J51049, J51050</t>
+  </si>
+  <si>
+    <t>1516276</t>
+  </si>
+  <si>
+    <t>B2B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>8201554</t>
+  </si>
+  <si>
+    <t>3224</t>
+  </si>
+  <si>
+    <t>Header 2X5 Shrouded</t>
+  </si>
+  <si>
+    <t>J51009, J51010, J51011, J51018, J51019, J51020</t>
+  </si>
+  <si>
+    <t>2215304</t>
+  </si>
+  <si>
+    <t>J51027</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>B4B-XH-A (LF)(SN)</t>
+  </si>
+  <si>
+    <t>JST 4pin (pris pr. stk.)</t>
+  </si>
+  <si>
+    <t>J52000, J52002, J53003, J53004, J53005</t>
+  </si>
+  <si>
+    <t>TK520_GDT-Trafo.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>1516278</t>
+  </si>
+  <si>
+    <t>B4B-XH-A -LF-SN</t>
+  </si>
+  <si>
     <t>JST 2pin (pris pr. stk.)</t>
   </si>
   <si>
-    <t>J51006, J51012, J51013, J51014, J51015, J51016, J51017, J51021, J51022, J51023, J51024, J51025, J51026, J51029, J51030, J51031, J51032, J51033, J51034, J51035, J51036, J51037, J51038, J51039, J51040, J51041, J51042, J51043, J51044, J51045, J51046, J51047, J51048, J51049, J51050, J52001, J53006, J53008</t>
-  </si>
-  <si>
-    <t>TK510_Signalbakplan.PcbDoc, TK520_GDT-Trafo.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>1516276</t>
-  </si>
-  <si>
-    <t>B2B-XH-A(LF)(SN)</t>
-  </si>
-  <si>
-    <t>RSComponents</t>
-  </si>
-  <si>
-    <t>8201554</t>
-  </si>
-  <si>
-    <t>3224</t>
-  </si>
-  <si>
-    <t>Header 2X5 Shrouded</t>
-  </si>
-  <si>
-    <t>J51009, J51010, J51011, J51018, J51019, J51020, J53007</t>
-  </si>
-  <si>
-    <t>TK510_Signalbakplan.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>2215304</t>
-  </si>
-  <si>
-    <t>3046</t>
-  </si>
-  <si>
-    <t>B4B-XH-A (LF)(SN)</t>
-  </si>
-  <si>
-    <t>JST 4pin (pris pr. stk.)</t>
-  </si>
-  <si>
-    <t>J52000, J52002, J53003, J53004, J53005</t>
-  </si>
-  <si>
-    <t>TK520_GDT-Trafo.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>1516278</t>
-  </si>
-  <si>
-    <t>B4B-XH-A -LF-SN</t>
+    <t>J52001, J53006, J53008</t>
   </si>
   <si>
     <t>3220</t>
@@ -741,6 +774,9 @@
     <t>200-C02160277003LVLC</t>
   </si>
   <si>
+    <t>J53007</t>
+  </si>
+  <si>
     <t>3646</t>
   </si>
   <si>
@@ -753,7 +789,7 @@
     <t>JP1, R3, R4, R13, R14, R23, R24</t>
   </si>
   <si>
-    <t>TK516_LINREG-PSU.PcbDoc, TK502_Frontpanel_LEDs.PcbDoc, TK512_Optisk_Mottaker.PcbDoc</t>
+    <t>TK516_LINREG-PSU.PcbDoc, TK502_Frontpanel_LEDs.PcbDoc</t>
   </si>
   <si>
     <t>multicomp</t>
@@ -768,18 +804,18 @@
     <t>Spole 15H</t>
   </si>
   <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>2747875</t>
+  </si>
+  <si>
     <t>Wirewound Inductor, 15 µH, 2.8 ohm, 20 MHz, 130 mA</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>2747875</t>
-  </si>
-  <si>
     <t>4718</t>
   </si>
   <si>
@@ -804,18 +840,18 @@
     <t>KortStøtte 84mm</t>
   </si>
   <si>
+    <t>M51000, M51001, M51002, M51003, M51004, M51005, M51006, M51007, M51008, M51009, M51010, M51011, M51012, M51013, M51014, M51015, M51016, M51017</t>
+  </si>
+  <si>
+    <t>4028</t>
+  </si>
+  <si>
+    <t>KortStøtte 50mm</t>
+  </si>
+  <si>
     <t>Støtter kort i bakplan</t>
   </si>
   <si>
-    <t>M51000, M51001, M51002, M51003, M51004, M51005, M51006, M51007, M51008, M51009, M51010, M51011, M51012, M51013, M51014, M51015, M51016, M51017</t>
-  </si>
-  <si>
-    <t>4028</t>
-  </si>
-  <si>
-    <t>KortStøtte 50mm</t>
-  </si>
-  <si>
     <t>M53000, M53001, M53002, M53003, M53004, M53005</t>
   </si>
   <si>
@@ -846,10 +882,10 @@
     <t>P-Channel MOSFET 300mA</t>
   </si>
   <si>
-    <t>Q1, Q2, Q3, Q5, Q51003, Q51004, Q51005, Q51009, Q51010, Q51011, Q51016, Q51017, Q51018, Q51020, Q51021, Q53003, Q53004, Q53005</t>
-  </si>
-  <si>
-    <t>TK514_Interrupter.PcbDoc, TK513_Limiter.PcbDoc, TK512_Optisk_Mottaker.PcbDoc, TK510_Signalbakplan.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+    <t>Q1, Q2, Q3, Q53003, Q53004, Q53005</t>
+  </si>
+  <si>
+    <t>TK514_Interrupter.PcbDoc, TK513_Limiter.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
   </si>
   <si>
     <t>NXP Semiconductors</t>
@@ -867,15 +903,24 @@
     <t>N-Channel MOSFET 300mA</t>
   </si>
   <si>
-    <t>Q1, Q4, Q51000, Q51001, Q51002, Q51006, Q51007, Q51008, Q51012, Q51013, Q51014, Q51015, Q51019, Q53000, Q53001, Q53002</t>
-  </si>
-  <si>
-    <t>TK513_Limiter.PcbDoc, TK512_Optisk_Mottaker.PcbDoc, TK510_Signalbakplan.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+    <t>Q1, Q53000, Q53001, Q53002</t>
+  </si>
+  <si>
+    <t>TK513_Limiter.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>Nexperia, [NoParam]</t>
   </si>
   <si>
     <t>1829184</t>
   </si>
   <si>
+    <t>Q3, Q5, Q51003, Q51004, Q51005, Q51009, Q51010, Q51011, Q51016, Q51017, Q51018, Q51020, Q51021</t>
+  </si>
+  <si>
+    <t>Q4, Q51000, Q51001, Q51002, Q51006, Q51007, Q51008, Q51012, Q51013, Q51014, Q51015, Q51019</t>
+  </si>
+  <si>
     <t>5228</t>
   </si>
   <si>
@@ -888,6 +933,9 @@
     <t>R1</t>
   </si>
   <si>
+    <t>2447397</t>
+  </si>
+  <si>
     <t>3890</t>
   </si>
   <si>
@@ -900,16 +948,19 @@
     <t>R1, R2</t>
   </si>
   <si>
+    <t>9341145</t>
+  </si>
+  <si>
     <t>5264</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R1, R2, R11, R12, R21, R22, R51000, R51001, R51002, R51003, R51004, R51005, R51006, R51010, R51011, R51012, R51013, R51014, R51015, R51016, R51017, R51021, R51022, R51023, R51024, R51025, R51026, R51027, R51028, R51029, R51030, R51031, R51032, R51033, R51034, R51035, R51036, R51037, R51038, R51039, R51040, R51041, R51042, R51043, R53000, R53001, R53002, R53006</t>
-  </si>
-  <si>
-    <t>TK502_Frontpanel_LEDs.PcbDoc, TK512_Optisk_Mottaker.PcbDoc, TK510_Signalbakplan.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+    <t>R1, R2, R11, R12, R21, R22, R53000, R53001, R53002, R53006</t>
+  </si>
+  <si>
+    <t>TK502_Frontpanel_LEDs.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
   </si>
   <si>
     <t>2447230</t>
@@ -927,6 +978,9 @@
     <t>2447272</t>
   </si>
   <si>
+    <t>R1, R51000, R51002, R51003, R51004, R51005, R51010, R51011, R51012, R51013, R51014, R51015, R51016, R51017, R51021, R51022, R51023, R51024, R51025, R51026, R51027, R51028, R51029, R51030, R51031, R51032, R51033, R51034, R51035, R51036, R51037, R51038, R51039, R51040, R51041, R51042, R51043</t>
+  </si>
+  <si>
     <t>5040</t>
   </si>
   <si>
@@ -939,7 +993,7 @@
     <t>5657</t>
   </si>
   <si>
-    <t>TK513_Limiter.PcbDoc</t>
+    <t>2447233</t>
   </si>
   <si>
     <t>5343</t>
@@ -948,10 +1002,7 @@
     <t>330R</t>
   </si>
   <si>
-    <t>R2, R5, R6, R7, R8, R9, R10, R15, R16, R17, R18, R19, R20, R25, R26, R27, R28, R29, R30, R51007, R51008, R51009, R51018, R51019, R51020, R51044, R51045, R51046, R51047, R51048, R51049</t>
-  </si>
-  <si>
-    <t>TK512_Optisk_Mottaker.PcbDoc, TK502_Frontpanel_LEDs.PcbDoc, TK510_Signalbakplan.PcbDoc</t>
+    <t>R2, R7, R51007, R51008, R51009, R51018, R51019, R51020, R51044, R51045, R51046, R51047, R51048, R51049</t>
   </si>
   <si>
     <t>2447339</t>
@@ -966,6 +1017,15 @@
     <t>R3</t>
   </si>
   <si>
+    <t>2447448</t>
+  </si>
+  <si>
+    <t>5357</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
     <t>5340</t>
   </si>
   <si>
@@ -978,13 +1038,16 @@
     <t>TK531_Utgangstrinn.PcbDoc, TK514_Interrupter.PcbDoc</t>
   </si>
   <si>
-    <t>5357</t>
-  </si>
-  <si>
-    <t>20k</t>
-  </si>
-  <si>
-    <t>R3, R6</t>
+    <t>Multicomp, [NoParam]</t>
+  </si>
+  <si>
+    <t>Farnell, [NoParam]</t>
+  </si>
+  <si>
+    <t>2073358, [NoParam]</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
   <si>
     <t>3778</t>
@@ -993,7 +1056,7 @@
     <t>100k</t>
   </si>
   <si>
-    <t>R4</t>
+    <t>2447226</t>
   </si>
   <si>
     <t>3823</t>
@@ -1026,6 +1089,15 @@
     <t>R5</t>
   </si>
   <si>
+    <t>R5, R6, R7, R8, R9, R10, R15, R16, R17, R18, R19, R20, R25, R26, R27, R28, R29, R30</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>2447293</t>
+  </si>
+  <si>
     <t>4889</t>
   </si>
   <si>
@@ -1035,7 +1107,10 @@
     <t>R53003, R53004, R53005</t>
   </si>
   <si>
-    <t>6203</t>
+    <t>2447378</t>
+  </si>
+  <si>
+    <t>3215</t>
   </si>
   <si>
     <t>SD250-3</t>
@@ -1062,9 +1137,6 @@
     <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8</t>
   </si>
   <si>
-    <t>TK512_Optisk_Mottaker.PcbDoc, TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc</t>
-  </si>
-  <si>
     <t>3211</t>
   </si>
   <si>
@@ -1101,55 +1173,58 @@
     <t>74HC14</t>
   </si>
   <si>
+    <t>1607772</t>
+  </si>
+  <si>
+    <t>3241</t>
+  </si>
+  <si>
+    <t>LM311</t>
+  </si>
+  <si>
+    <t>Comparator, High Speed</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>2293183</t>
+  </si>
+  <si>
+    <t>3342</t>
+  </si>
+  <si>
+    <t>LM78L05</t>
+  </si>
+  <si>
+    <t>Onsemi</t>
+  </si>
+  <si>
+    <t>9666095</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>74HCT1G125GW-Q100H</t>
+  </si>
+  <si>
+    <t>U2, U3</t>
+  </si>
+  <si>
+    <t>1105927</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>77174HCT1G125GWQ100H</t>
+  </si>
+  <si>
     <t>Hex Schmitt trigger</t>
   </si>
   <si>
-    <t>U1, U2, U7</t>
-  </si>
-  <si>
-    <t>1607772</t>
-  </si>
-  <si>
-    <t>3241</t>
-  </si>
-  <si>
-    <t>LM311</t>
-  </si>
-  <si>
-    <t>Comparator, High Speed</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>2293183</t>
-  </si>
-  <si>
-    <t>3342</t>
-  </si>
-  <si>
-    <t>LM78L05</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>74HCT1G125GW-Q100H</t>
-  </si>
-  <si>
-    <t>Buffer / Line Driver, 74HCT1G125, 4.5 V to 5.5 V, TSSOP-5</t>
-  </si>
-  <si>
-    <t>U2, U3</t>
-  </si>
-  <si>
-    <t>1105927</t>
-  </si>
-  <si>
-    <t>Nexperia</t>
-  </si>
-  <si>
-    <t>77174HCT1G125GWQ100H</t>
+    <t>U2, U7</t>
   </si>
   <si>
     <t>6202</t>
@@ -1207,9 +1282,6 @@
   </si>
   <si>
     <t>MOCD207R2M</t>
-  </si>
-  <si>
-    <t>Dual Optocoupler</t>
   </si>
   <si>
     <t>U51000</t>
@@ -1597,11 +1669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B090C4-D035-4DED-BC91-9B038BF4B212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EDB8B8-9AC7-4E6F-821F-AD7B77156525}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,7 +1789,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1809,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>30</v>
@@ -1795,7 +1867,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1805,9 +1877,7 @@
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1815,16 +1885,16 @@
         <v>42</v>
       </c>
       <c r="G5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1834,31 +1904,37 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1867,36 +1943,36 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1907,28 +1983,34 @@
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="H8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1942,26 +2024,30 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4">
-        <v>3</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1975,16 +2061,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>36</v>
@@ -1992,12 +2078,14 @@
       <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2008,33 +2096,33 @@
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -2044,36 +2132,34 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2088,26 +2174,30 @@
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -2116,36 +2206,36 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2160,31 +2250,31 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2195,33 +2285,33 @@
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2231,81 +2321,75 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="G17" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="G18" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2315,36 +2399,36 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G19" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2354,36 +2438,36 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="G20" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2393,36 +2477,36 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="G21" s="4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2437,35 +2521,41 @@
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G22" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2476,40 +2566,40 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G23" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2521,31 +2611,31 @@
         <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -2555,180 +2645,152 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G25" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P25" s="4">
-        <v>0.12806000000000001</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B26" s="3" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="G26" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0.52519000000000005</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="G27" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>172</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="3" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="G28" s="4">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -2737,31 +2799,37 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="G29" s="4">
         <v>6</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="H29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -2770,303 +2838,301 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="4">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0.12722</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0.52175000000000005</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="F34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="4">
-        <v>3</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="P30" s="4">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>25.86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="4">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0.14247000000000001</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G32" s="4">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="K34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="4">
-        <v>10</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G34" s="4">
-        <v>9</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="M34" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>211</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="3" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="G35" s="4">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="G36" s="4">
         <v>7</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>222</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -3075,130 +3141,142 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="G37" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>189</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37" s="4">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>25.86</v>
+      </c>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="G38" s="4">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="4">
         <v>3</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="P38" s="4">
-        <v>9.91</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>29.73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="4">
-        <v>10</v>
-      </c>
       <c r="H39" s="3" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -3208,36 +3286,36 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="G40" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -3247,36 +3325,36 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="G41" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -3286,64 +3364,90 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G42" s="4">
-        <v>18</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-    </row>
-    <row r="43" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="G43" s="4">
         <v>6</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="H43" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -3357,186 +3461,220 @@
         <v>17</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>262</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D44" s="4"/>
       <c r="E44" s="3" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="G44" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>182</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="G45" s="4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="G46" s="4">
-        <v>16</v>
-      </c>
-      <c r="H46" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="I46" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
+        <v>224</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="47" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="G47" s="4">
         <v>3</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
+      <c r="H47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="P47" s="4">
+        <v>9.91</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>29.73</v>
+      </c>
     </row>
     <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="G48" s="4">
-        <v>4</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -3545,36 +3683,36 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="1:17" ht="240" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="G49" s="4">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -3584,36 +3722,34 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>281</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D50" s="4"/>
       <c r="E50" s="3" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="G50" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -3624,30 +3760,36 @@
       <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B51" s="3" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G51" s="4">
         <v>1</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+        <v>256</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -3656,29 +3798,37 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+    <row r="52" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B52" s="3" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="G52" s="4">
-        <v>1</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -3687,37 +3837,31 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>281</v>
+        <v>17</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="G53" s="4">
-        <v>32</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>305</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -3726,25 +3870,27 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
     </row>
-    <row r="54" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+    <row r="54" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B54" s="3" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="G54" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3757,34 +3903,46 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
     </row>
-    <row r="55" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="G55" s="4">
-        <v>8</v>
-      </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -3795,130 +3953,176 @@
         <v>17</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="G56" s="4">
-        <v>2</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+    <row r="57" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B57" s="3" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
     </row>
-    <row r="58" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>323</v>
+        <v>134</v>
       </c>
       <c r="G58" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
+        <v>284</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
     </row>
-    <row r="59" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+    <row r="59" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B59" s="3" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>281</v>
+        <v>17</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="G59" s="4">
-        <v>1</v>
-      </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -3929,26 +4133,32 @@
         <v>17</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="G60" s="4">
         <v>3</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="H60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -3957,72 +4167,76 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="G61" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>182</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="G62" s="4">
-        <v>19</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -4036,76 +4250,70 @@
         <v>17</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G63" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>346</v>
+        <v>30</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>182</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="195" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="G64" s="4">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -4115,37 +4323,33 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
     </row>
-    <row r="65" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G65" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>356</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -4154,74 +4358,76 @@
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
     </row>
-    <row r="66" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B66" s="3" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="G66" s="4">
         <v>1</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
     </row>
-    <row r="67" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="G67" s="4">
-        <v>3</v>
-      </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -4230,152 +4436,110 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
     </row>
-    <row r="68" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="3" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G68" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="P68" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="Q68" s="4">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+    </row>
+    <row r="69" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G69" s="4">
-        <v>3</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="P69" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q69" s="4">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+    </row>
+    <row r="70" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="G70" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>182</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -4386,92 +4550,869 @@
         <v>17</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>384</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D71" s="4"/>
       <c r="E71" s="3" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="G71" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>386</v>
+        <v>251</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
     </row>
-    <row r="72" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B72" s="3" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>390</v>
+        <v>296</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G72" s="4">
         <v>1</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
     </row>
+    <row r="73" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G73" s="4">
+        <v>2</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+    </row>
+    <row r="74" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" s="4">
+        <v>18</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+    </row>
+    <row r="77" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G77" s="4">
+        <v>3</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G78" s="4">
+        <v>2</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+    </row>
+    <row r="79" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="4">
+        <v>8</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+    </row>
+    <row r="80" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G80" s="4">
+        <v>11</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+    </row>
+    <row r="81" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G81" s="4">
+        <v>2</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+    </row>
+    <row r="82" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="4">
+        <v>3</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+    </row>
+    <row r="83" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+    </row>
+    <row r="84" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+    </row>
+    <row r="85" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" s="4">
+        <v>3</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+    </row>
+    <row r="86" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="P86" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+    </row>
+    <row r="88" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="4">
+        <v>3</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P88" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G89" s="4">
+        <v>2</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+    </row>
+    <row r="90" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" s="4">
+        <v>2</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+    </row>
+    <row r="91" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="P91" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>8.76</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="15" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="14" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/05_Hardware/TK500_Driver/TK500_Driver/Project Outputs/BOM/Bill of Materials-TK500_Driver.xlsx
+++ b/05_Hardware/TK500_Driver/TK500_Driver/Project Outputs/BOM/Bill of Materials-TK500_Driver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\tesla-driver\05_Hardware\TK500_Driver\TK500_Driver\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8C19F3-B79D-49A2-BEBB-2DB518893BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A117B932-3F6F-4D8F-BEA3-9C35112B874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{CB3B97B8-2216-4801-B450-0B54E1BB9393}"/>
+    <workbookView xWindow="-34605" yWindow="2865" windowWidth="28800" windowHeight="15435" xr2:uid="{D7C11657-0F32-41FF-A264-D16A7EACD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-TK500_Driver" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="507">
   <si>
     <t>Line #</t>
   </si>
@@ -123,13 +123,13 @@
     <t>X7R 50V 5%</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C12, C53000</t>
-  </si>
-  <si>
-    <t>TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc, TK516_LINREG-PSU.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>Multicomp, Multikomp</t>
+    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C53000</t>
+  </si>
+  <si>
+    <t>TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc, TK516_LINREG-PSU.PcbDoc, TK512_Optisk_Mottaker.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>Multicomp</t>
   </si>
   <si>
     <t>1759122</t>
@@ -156,843 +156,996 @@
     <t>2346202</t>
   </si>
   <si>
+    <t>3687</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C2, C3, C4</t>
+  </si>
+  <si>
+    <t>TK513_Limiter.PcbDoc, TK512_Optisk_Mottaker.PcbDoc</t>
+  </si>
+  <si>
+    <t>2310598</t>
+  </si>
+  <si>
+    <t>3316</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>X7R 25V 10%</t>
+  </si>
+  <si>
+    <t>C2, C8</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>3013426</t>
+  </si>
+  <si>
     <t>5154</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>X7R 50V</t>
+  </si>
+  <si>
+    <t>C2, C10, C11</t>
+  </si>
+  <si>
+    <t>TK512_Optisk_Mottaker.PcbDoc, TK514_Interrupter.PcbDoc</t>
+  </si>
+  <si>
+    <t>1759454</t>
+  </si>
+  <si>
+    <t>5155</t>
+  </si>
+  <si>
+    <t>47pF</t>
+  </si>
+  <si>
+    <t>NP0 50V 5%</t>
+  </si>
+  <si>
+    <t>C3</t>
   </si>
   <si>
     <t>TK512_Optisk_Mottaker.PcbDoc</t>
   </si>
   <si>
-    <t>Multicomp</t>
-  </si>
-  <si>
-    <t>1759454</t>
-  </si>
-  <si>
-    <t>3687</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>C2, C3</t>
+    <t>WALSIN</t>
+  </si>
+  <si>
+    <t>2496905</t>
+  </si>
+  <si>
+    <t>4164</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>X5R 10V 10%</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>3013462</t>
+  </si>
+  <si>
+    <t>3114</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>X5R 6.3V 10%</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>2320852</t>
+  </si>
+  <si>
+    <t>5303</t>
+  </si>
+  <si>
+    <t>X7R 50V 10%</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>1735541</t>
+  </si>
+  <si>
+    <t>4858</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>25V 2.5mm pitch</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>TK512_Optisk_Mottaker.PcbDoc, TK513_Limiter.PcbDoc</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>1848439</t>
+  </si>
+  <si>
+    <t>4844</t>
+  </si>
+  <si>
+    <t>2200uF</t>
+  </si>
+  <si>
+    <t>6.3V, Elektrolytt, 5mm lead spacing</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>2627680</t>
+  </si>
+  <si>
+    <t>5192</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>10V 10% Tantalum</t>
+  </si>
+  <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>1457420</t>
+  </si>
+  <si>
+    <t>5059</t>
+  </si>
+  <si>
+    <t>X5R 50V 10%</t>
+  </si>
+  <si>
+    <t>C13, C14</t>
+  </si>
+  <si>
+    <t>TK514_Interrupter.PcbDoc</t>
+  </si>
+  <si>
+    <t>2672214</t>
+  </si>
+  <si>
+    <t>3491</t>
+  </si>
+  <si>
+    <t>22nF</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>1414682</t>
+  </si>
+  <si>
+    <t>3076</t>
+  </si>
+  <si>
+    <t>MAL209636222E3</t>
+  </si>
+  <si>
+    <t>CAP, ALU ELEC, 2200UF, 400V</t>
+  </si>
+  <si>
+    <t>C52500</t>
+  </si>
+  <si>
+    <t>dummy.PcbDoc</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>2342176</t>
+  </si>
+  <si>
+    <t>Vishay BCcomponents</t>
+  </si>
+  <si>
+    <t>Volume Production</t>
+  </si>
+  <si>
+    <t>4891</t>
+  </si>
+  <si>
+    <t>15ETX06</t>
+  </si>
+  <si>
+    <t>DIODE, HYPERFAST, 15A, 600V</t>
+  </si>
+  <si>
+    <t>D1, D2</t>
+  </si>
+  <si>
+    <t>TK531_Utgangstrinn.PcbDoc</t>
+  </si>
+  <si>
+    <t>8656991</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductors</t>
+  </si>
+  <si>
+    <t>Obsolete</t>
+  </si>
+  <si>
+    <t>5238</t>
+  </si>
+  <si>
+    <t>1N5819</t>
+  </si>
+  <si>
+    <t>Schottkydiode, 1A, 40V</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D6</t>
+  </si>
+  <si>
+    <t>TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc</t>
+  </si>
+  <si>
+    <t>7429304, 1336533</t>
+  </si>
+  <si>
+    <t>4485</t>
+  </si>
+  <si>
+    <t>1N4148 SMD</t>
+  </si>
+  <si>
+    <t>SMD signaldiode</t>
+  </si>
+  <si>
+    <t>D1, D2, D7</t>
+  </si>
+  <si>
+    <t>TK514_Interrupter.PcbDoc, TK512_Optisk_Mottaker.PcbDoc</t>
+  </si>
+  <si>
+    <t>Taiwan Semiconductor</t>
+  </si>
+  <si>
+    <t>8150206</t>
+  </si>
+  <si>
+    <t>5138</t>
+  </si>
+  <si>
+    <t>Grønn LED 5mm</t>
+  </si>
+  <si>
+    <t>LED, Green, 5mm, 572 nm, 2.1 V, 20 mA, 150 mcd</t>
+  </si>
+  <si>
+    <t>D1, D3, D4, D6, D7, D9, D10, D12, D13, D15, D16, D18</t>
+  </si>
+  <si>
+    <t>TK502_Frontpanel_LEDs.PcbDoc</t>
+  </si>
+  <si>
+    <t>2112108</t>
+  </si>
+  <si>
+    <t>5143</t>
+  </si>
+  <si>
+    <t>SMD LED Red</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>D1, D3, D51000, D51001, D51002, D51003, D51004, D51005, D51006, D51007, D51008, D51009, D51010, D53000, D53001, D53002</t>
+  </si>
+  <si>
+    <t>TK512_Optisk_Mottaker.PcbDoc, TK516_LINREG-PSU.PcbDoc, TK510_Signalbakplan.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>Avago</t>
+  </si>
+  <si>
+    <t>8554641</t>
+  </si>
+  <si>
+    <t>5305</t>
+  </si>
+  <si>
+    <t>Rød LED 5mm</t>
+  </si>
+  <si>
+    <t>LED, Red, 5mm, 643 nm, 1.8 V, 20 mA, 400 mcd</t>
+  </si>
+  <si>
+    <t>D2, D5, D8, D11, D14, D17</t>
+  </si>
+  <si>
+    <t>2112111</t>
+  </si>
+  <si>
+    <t>3261</t>
+  </si>
+  <si>
+    <t>1V5KE400A</t>
+  </si>
+  <si>
+    <t>TVS diode,  400V, 1500W</t>
+  </si>
+  <si>
+    <t>D3, D4</t>
+  </si>
+  <si>
+    <t>Fairchild</t>
+  </si>
+  <si>
+    <t>1017630</t>
+  </si>
+  <si>
+    <t>ON Semiconductor / Fairchild</t>
+  </si>
+  <si>
+    <t>3264</t>
+  </si>
+  <si>
+    <t>1N5337</t>
+  </si>
+  <si>
+    <t>Zenerdiode 4.7V 5W</t>
+  </si>
+  <si>
+    <t>D4, D5</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>9557946</t>
+  </si>
+  <si>
+    <t>4876</t>
+  </si>
+  <si>
+    <t>1N4744A</t>
+  </si>
+  <si>
+    <t>Zenerdiode 15V 1.3W</t>
+  </si>
+  <si>
+    <t>D5, D6, D7, D8</t>
+  </si>
+  <si>
+    <t>1612369</t>
+  </si>
+  <si>
+    <t>1612368</t>
+  </si>
+  <si>
+    <t>3322</t>
+  </si>
+  <si>
+    <t>GBJ2504</t>
+  </si>
+  <si>
+    <t>diodebro/Likeretterbro 400V 25A</t>
+  </si>
+  <si>
+    <t>D52500</t>
+  </si>
+  <si>
+    <t>1651042</t>
+  </si>
+  <si>
+    <t>3117</t>
+  </si>
+  <si>
+    <t>LED Rød</t>
+  </si>
+  <si>
+    <t>Farget LED, 5mm</t>
+  </si>
+  <si>
+    <t>D52501</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>5314</t>
+  </si>
+  <si>
+    <t>SMBJ5.0A-TR</t>
+  </si>
+  <si>
+    <t>Transient Voltage Suppressor, TVS, Transil SMBJ Series, Unidirectional, 5 V, SMD, 2, 6.4 V</t>
+  </si>
+  <si>
+    <t>D53003</t>
+  </si>
+  <si>
+    <t>TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>ST Microelectronics</t>
+  </si>
+  <si>
+    <t>9886311</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>2977</t>
+  </si>
+  <si>
+    <t>Automatsikring</t>
+  </si>
+  <si>
+    <t>2-Pol</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>2492800</t>
+  </si>
+  <si>
+    <t>5311</t>
+  </si>
+  <si>
+    <t>MC36214</t>
+  </si>
+  <si>
+    <t>FUSE, PTC RESET, SMD, 16V, 500MA</t>
+  </si>
+  <si>
+    <t>F53000, F53001</t>
+  </si>
+  <si>
+    <t>1861181</t>
+  </si>
+  <si>
+    <t>3037</t>
+  </si>
+  <si>
+    <t>PCIeX1-GF-2D-1000-1K-O36</t>
+  </si>
+  <si>
+    <t>PCI express PCB kortkankonnektor</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>TK511_Blindkort.PcbDoc, TK512_Optisk_Mottaker.PcbDoc, TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc, TK516_LINREG-PSU.PcbDoc</t>
+  </si>
+  <si>
+    <t>PCB feature</t>
+  </si>
+  <si>
+    <t>3221</t>
+  </si>
+  <si>
+    <t>MPTC-02-16-02-01-03-L-RA-SD</t>
+  </si>
+  <si>
+    <t>SAMTEC Connector</t>
+  </si>
+  <si>
+    <t>TK531_Utgangstrinn.PcbDoc, TK532_Kondensatorkort.PcbDoc</t>
+  </si>
+  <si>
+    <t>SAMTEC</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>200-MPTC0216213LRASD</t>
+  </si>
+  <si>
+    <t>4473</t>
+  </si>
+  <si>
+    <t>B3B-XH-A (LF)(SN)</t>
+  </si>
+  <si>
+    <t>JST 3pin (pris pr. stk.)</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4, J5, J6</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>1516277</t>
+  </si>
+  <si>
+    <t>B3B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>RSComponents</t>
+  </si>
+  <si>
+    <t>8201557</t>
+  </si>
+  <si>
+    <t>3259</t>
+  </si>
+  <si>
+    <t>Header 2X17 Shrouded</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>J2, J7, J51027</t>
+  </si>
+  <si>
+    <t>TK511_Blindkort.PcbDoc, TK502_Frontpanel_LEDs.PcbDoc, TK510_Signalbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>Amphenol</t>
+  </si>
+  <si>
+    <t>2215313</t>
+  </si>
+  <si>
+    <t>5095</t>
+  </si>
+  <si>
+    <t>Header 1x3</t>
+  </si>
+  <si>
+    <t>2,54mm pitch</t>
+  </si>
+  <si>
+    <t>J3, J4, J5, J6, J7</t>
+  </si>
+  <si>
+    <t>TK511_Blindkort.PcbDoc</t>
+  </si>
+  <si>
+    <t>3690124</t>
+  </si>
+  <si>
+    <t>3222</t>
+  </si>
+  <si>
+    <t>PCI_Express-36P</t>
+  </si>
+  <si>
+    <t>J51000, J51001, J51002, J51003, J51004, J51005, J51007, J51008, J51028</t>
+  </si>
+  <si>
+    <t>TK510_Signalbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>1144435</t>
+  </si>
+  <si>
+    <t>4043</t>
+  </si>
+  <si>
+    <t>B2B-XH-A (LF)(SN)</t>
+  </si>
+  <si>
+    <t>JST 2pin (pris pr. stk.)</t>
+  </si>
+  <si>
+    <t>J51006, J51012, J51013, J51014, J51015, J51016, J51017, J51021, J51022, J51023, J51024, J51025, J51026, J51029, J51030, J51031, J51032, J51033, J51034, J51035, J51036, J51037, J51038, J51039, J51040, J51041, J51042, J51043, J51044, J51045, J51046, J51047, J51048, J51049, J51050, J52001, J53006, J53008</t>
+  </si>
+  <si>
+    <t>TK510_Signalbakplan.PcbDoc, TK520_GDT-Trafo.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>1516276</t>
+  </si>
+  <si>
+    <t>B2B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>8201554</t>
+  </si>
+  <si>
+    <t>3224</t>
+  </si>
+  <si>
+    <t>Header 2X5 Shrouded</t>
+  </si>
+  <si>
+    <t>J51009, J51010, J51011, J51018, J51019, J51020, J53007</t>
+  </si>
+  <si>
+    <t>TK510_Signalbakplan.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>2215304</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>B4B-XH-A (LF)(SN)</t>
+  </si>
+  <si>
+    <t>JST 4pin (pris pr. stk.)</t>
+  </si>
+  <si>
+    <t>J52000, J52002, J53003, J53004, J53005</t>
+  </si>
+  <si>
+    <t>TK520_GDT-Trafo.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>1516278</t>
+  </si>
+  <si>
+    <t>B4B-XH-A -LF-SN</t>
+  </si>
+  <si>
+    <t>3220</t>
+  </si>
+  <si>
+    <t>MPSC-02-16-02-7.70-03-L-V-LC</t>
+  </si>
+  <si>
+    <t>J53000, J53001, J53002</t>
+  </si>
+  <si>
+    <t>200-C02160277003LVLC</t>
+  </si>
+  <si>
+    <t>3646</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>0.1W 1% Thick film resistor, Jumper</t>
+  </si>
+  <si>
+    <t>JP1, R3, R4, R13, R14, R23, R24</t>
+  </si>
+  <si>
+    <t>TK516_LINREG-PSU.PcbDoc, TK502_Frontpanel_LEDs.PcbDoc, TK512_Optisk_Mottaker.PcbDoc</t>
+  </si>
+  <si>
+    <t>multicomp</t>
+  </si>
+  <si>
+    <t>2447060</t>
+  </si>
+  <si>
+    <t>3272</t>
+  </si>
+  <si>
+    <t>DIN-Rele 5V</t>
+  </si>
+  <si>
+    <t>Coil: 5VDC, Contact: 250VAC 6A, DIN mount</t>
+  </si>
+  <si>
+    <t>K1, K52501</t>
+  </si>
+  <si>
+    <t>1895933</t>
+  </si>
+  <si>
+    <t>2948</t>
+  </si>
+  <si>
+    <t>Kontaktor</t>
+  </si>
+  <si>
+    <t>Industriellt rele</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>IMO</t>
+  </si>
+  <si>
+    <t>9940480</t>
+  </si>
+  <si>
+    <t>6201</t>
+  </si>
+  <si>
+    <t>Spole 15H</t>
+  </si>
+  <si>
+    <t>Wirewound Inductor, 15 µH, 2.8 ohm, 20 MHz, 130 mA</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>2747875</t>
+  </si>
+  <si>
+    <t>3842</t>
+  </si>
+  <si>
+    <t>Skilletrafo 2:1</t>
+  </si>
+  <si>
+    <t>Skilletrafo Ringkjerne</t>
+  </si>
+  <si>
+    <t>L52501</t>
+  </si>
+  <si>
+    <t>Hammond</t>
+  </si>
+  <si>
+    <t>2546942</t>
+  </si>
+  <si>
+    <t>4718</t>
+  </si>
+  <si>
+    <t>SK-454-75-SA</t>
+  </si>
+  <si>
+    <t>Heatsink</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>FischerElektronik</t>
+  </si>
+  <si>
+    <t>1850030</t>
+  </si>
+  <si>
+    <t>3273</t>
+  </si>
+  <si>
+    <t>Lask til 2.5mm2 Rekkeklemme 10way</t>
+  </si>
+  <si>
+    <t>Jumper (Busbar), Cross Jumper, DIN Rail Screw Clamp Terminal Blocks, 10 Ways</t>
+  </si>
+  <si>
+    <t>M1, M2</t>
+  </si>
+  <si>
+    <t>2061384</t>
+  </si>
+  <si>
+    <t>6258</t>
+  </si>
+  <si>
+    <t>Automasjonsbryter holder</t>
+  </si>
+  <si>
+    <t>Assembly Hardware, Siemens 3-Way Modules, Holder, SIRIUS ACT 3SU Series</t>
+  </si>
+  <si>
+    <t>M3, M4, M5, M6, M7</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>2695729</t>
+  </si>
+  <si>
+    <t>3242</t>
+  </si>
+  <si>
+    <t>KortStøtte 84mm</t>
+  </si>
+  <si>
+    <t>Støtter kort i bakplan</t>
+  </si>
+  <si>
+    <t>M51000, M51001, M51002, M51003, M51004, M51005, M51006, M51007, M51008, M51009, M51010, M51011, M51012, M51013, M51014, M51015, M51016, M51017</t>
+  </si>
+  <si>
+    <t>4028</t>
+  </si>
+  <si>
+    <t>KortStøtte 50mm</t>
+  </si>
+  <si>
+    <t>M53000, M53001, M53002, M53003, M53004, M53005</t>
+  </si>
+  <si>
+    <t>4877</t>
+  </si>
+  <si>
+    <t>G4PC50W</t>
+  </si>
+  <si>
+    <t>IGBT, 600V, 55A</t>
+  </si>
+  <si>
+    <t>Q1, Q2</t>
+  </si>
+  <si>
+    <t>International Rectifier</t>
+  </si>
+  <si>
+    <t>8650632</t>
+  </si>
+  <si>
+    <t>3085</t>
+  </si>
+  <si>
+    <t>BSH201</t>
+  </si>
+  <si>
+    <t>P-Channel MOSFET 300mA</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q5, Q51003, Q51004, Q51005, Q51009, Q51010, Q51011, Q51016, Q51017, Q51018, Q51020, Q51021, Q53003, Q53004, Q53005</t>
+  </si>
+  <si>
+    <t>TK514_Interrupter.PcbDoc, TK513_Limiter.PcbDoc, TK512_Optisk_Mottaker.PcbDoc, TK510_Signalbakplan.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
+    <t>1758073</t>
+  </si>
+  <si>
+    <t>3075</t>
+  </si>
+  <si>
+    <t>2N7002</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET 300mA</t>
+  </si>
+  <si>
+    <t>Q1, Q4, Q51000, Q51001, Q51002, Q51006, Q51007, Q51008, Q51012, Q51013, Q51014, Q51015, Q51019, Q53000, Q53001, Q53002</t>
+  </si>
+  <si>
+    <t>TK513_Limiter.PcbDoc, TK512_Optisk_Mottaker.PcbDoc, TK510_Signalbakplan.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>Nexperia, [NoParam]</t>
+  </si>
+  <si>
+    <t>1829184</t>
+  </si>
+  <si>
+    <t>5228</t>
+  </si>
+  <si>
+    <t>560R</t>
+  </si>
+  <si>
+    <t>0.1W 1% Thick film resistor</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>2447397</t>
+  </si>
+  <si>
+    <t>3890</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0.25W 1% Generic resistor</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>9341145</t>
+  </si>
+  <si>
+    <t>6251</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>100 Ohm, 100W Resistor, Solder Lug, Wirewound +-5% 1.9kV</t>
+  </si>
+  <si>
+    <t>TT electronics</t>
+  </si>
+  <si>
+    <t>1768214</t>
+  </si>
+  <si>
+    <t>5264</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R1, R2, R11, R12, R21, R22, R51000, R51001, R51002, R51003, R51004, R51005, R51006, R51010, R51011, R51012, R51013, R51014, R51015, R51016, R51017, R51021, R51022, R51023, R51024, R51025, R51026, R51027, R51028, R51029, R51030, R51031, R51032, R51033, R51034, R51035, R51036, R51037, R51038, R51039, R51040, R51041, R51042, R51043, R53000, R53001, R53002, R53006</t>
+  </si>
+  <si>
+    <t>TK502_Frontpanel_LEDs.PcbDoc, TK512_Optisk_Mottaker.PcbDoc, TK510_Signalbakplan.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
+  </si>
+  <si>
+    <t>2447230</t>
+  </si>
+  <si>
+    <t>5339</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R1, R3</t>
+  </si>
+  <si>
+    <t>2447272</t>
+  </si>
+  <si>
+    <t>5040</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>2447556</t>
+  </si>
+  <si>
+    <t>5657</t>
   </si>
   <si>
     <t>TK513_Limiter.PcbDoc</t>
   </si>
   <si>
-    <t>2310598</t>
-  </si>
-  <si>
-    <t>3316</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>X7R 25V 10%</t>
-  </si>
-  <si>
-    <t>C2, C8</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>3013426</t>
-  </si>
-  <si>
-    <t>5155</t>
-  </si>
-  <si>
-    <t>47pF</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>WALSIN</t>
-  </si>
-  <si>
-    <t>2496905</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>4164</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>X5R 10V 10%</t>
-  </si>
-  <si>
-    <t>3013462</t>
-  </si>
-  <si>
-    <t>3114</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>X5R 6.3V 10%</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>2320852</t>
-  </si>
-  <si>
-    <t>5303</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>1735541</t>
-  </si>
-  <si>
-    <t>4858</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>1848439</t>
-  </si>
-  <si>
-    <t>25V 2.5mm pitch</t>
-  </si>
-  <si>
-    <t>4844</t>
-  </si>
-  <si>
-    <t>2200uF</t>
-  </si>
-  <si>
-    <t>6.3V, Elektrolytt, 5mm lead spacing</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>2627680</t>
-  </si>
-  <si>
-    <t>5192</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>Kemet</t>
-  </si>
-  <si>
-    <t>1457420</t>
-  </si>
-  <si>
-    <t>10V 10% Tantalum</t>
-  </si>
-  <si>
-    <t>C8, C9, C10, C11</t>
-  </si>
-  <si>
-    <t>X7R 50V</t>
-  </si>
-  <si>
-    <t>C10, C11</t>
-  </si>
-  <si>
-    <t>TK514_Interrupter.PcbDoc</t>
-  </si>
-  <si>
-    <t>Multikomp</t>
-  </si>
-  <si>
-    <t>5059</t>
-  </si>
-  <si>
-    <t>X5R 50V 10%</t>
-  </si>
-  <si>
-    <t>C13, C14</t>
-  </si>
-  <si>
-    <t>1845762</t>
-  </si>
-  <si>
-    <t>3491</t>
-  </si>
-  <si>
-    <t>22nF</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>2627092</t>
-  </si>
-  <si>
-    <t>4891</t>
-  </si>
-  <si>
-    <t>15ETX06</t>
-  </si>
-  <si>
-    <t>DIODE, HYPERFAST, 15A, 600V</t>
-  </si>
-  <si>
-    <t>D1, D2</t>
-  </si>
-  <si>
-    <t>TK531_Utgangstrinn.PcbDoc</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>8656991</t>
-  </si>
-  <si>
-    <t>Vishay Semiconductors</t>
-  </si>
-  <si>
-    <t>Obsolete</t>
-  </si>
-  <si>
-    <t>5238</t>
-  </si>
-  <si>
-    <t>1N5819</t>
-  </si>
-  <si>
-    <t>Schottkydiode, 1A, 40V</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4, D6</t>
-  </si>
-  <si>
-    <t>TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc</t>
-  </si>
-  <si>
-    <t>7429304</t>
-  </si>
-  <si>
-    <t>Volume Production</t>
-  </si>
-  <si>
-    <t>4485</t>
-  </si>
-  <si>
-    <t>1N4148 SMD</t>
-  </si>
-  <si>
-    <t>SMD signaldiode</t>
-  </si>
-  <si>
-    <t>D1, D2, D7</t>
-  </si>
-  <si>
-    <t>Taiwan Semiconductor</t>
-  </si>
-  <si>
-    <t>8150206</t>
-  </si>
-  <si>
-    <t>5138</t>
-  </si>
-  <si>
-    <t>Grønn LED 5mm</t>
-  </si>
-  <si>
-    <t>LED, Green, 5mm, 572 nm, 2.1 V, 20 mA, 150 mcd</t>
-  </si>
-  <si>
-    <t>D1, D3, D4, D6, D7, D9, D10, D12, D13, D15, D16, D18</t>
-  </si>
-  <si>
-    <t>TK502_Frontpanel_LEDs.PcbDoc</t>
-  </si>
-  <si>
-    <t>2112108</t>
-  </si>
-  <si>
-    <t>5143</t>
-  </si>
-  <si>
-    <t>SMD LED Red</t>
-  </si>
-  <si>
-    <t>D1, D3, D51000, D51001, D51002, D51003, D51004, D51005, D51006, D51007, D51008, D51009, D51010</t>
-  </si>
-  <si>
-    <t>TK512_Optisk_Mottaker.PcbDoc, TK510_Signalbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>Avago</t>
-  </si>
-  <si>
-    <t>8554641</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>D1, D53000, D53001, D53002</t>
-  </si>
-  <si>
-    <t>TK516_LINREG-PSU.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>5305</t>
-  </si>
-  <si>
-    <t>Rød LED 5mm</t>
-  </si>
-  <si>
-    <t>LED, Red, 5mm, 643 nm, 1.8 V, 20 mA, 400 mcd</t>
-  </si>
-  <si>
-    <t>D2, D5, D8, D11, D14, D17</t>
-  </si>
-  <si>
-    <t>2112111</t>
-  </si>
-  <si>
-    <t>3261</t>
-  </si>
-  <si>
-    <t>1V5KE400A</t>
-  </si>
-  <si>
-    <t>TVS diode,  400V, 1500W</t>
-  </si>
-  <si>
-    <t>D3, D4</t>
-  </si>
-  <si>
-    <t>Fairchild</t>
-  </si>
-  <si>
-    <t>1017630</t>
-  </si>
-  <si>
-    <t>ON Semiconductor / Fairchild</t>
-  </si>
-  <si>
-    <t>3264</t>
-  </si>
-  <si>
-    <t>1N5337</t>
-  </si>
-  <si>
-    <t>Zenerdiode 4.7V 5W</t>
-  </si>
-  <si>
-    <t>D4, D5</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>9557946</t>
-  </si>
-  <si>
-    <t>4876</t>
-  </si>
-  <si>
-    <t>1N4744A</t>
-  </si>
-  <si>
-    <t>Zenerdiode 15V 1.3W</t>
-  </si>
-  <si>
-    <t>D5, D6, D7, D8</t>
-  </si>
-  <si>
-    <t>1612369</t>
-  </si>
-  <si>
-    <t>1612368</t>
-  </si>
-  <si>
-    <t>5314</t>
-  </si>
-  <si>
-    <t>SMBJ5.0A-TR</t>
-  </si>
-  <si>
-    <t>Transient Voltage Suppressor, TVS, Transil SMBJ Series, Unidirectional, 5 V, SMD, 2, 6.4 V</t>
-  </si>
-  <si>
-    <t>D53003</t>
-  </si>
-  <si>
-    <t>TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>ST Microelectronics</t>
-  </si>
-  <si>
-    <t>9886311</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>5311</t>
-  </si>
-  <si>
-    <t>MC36214</t>
-  </si>
-  <si>
-    <t>FUSE, PTC RESET, SMD, 16V, 500MA</t>
-  </si>
-  <si>
-    <t>F53000, F53001</t>
-  </si>
-  <si>
-    <t>1861181</t>
-  </si>
-  <si>
-    <t>3037</t>
-  </si>
-  <si>
-    <t>PCIeX1-GF-2D-1000-1K-O36</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>PCB feature</t>
-  </si>
-  <si>
-    <t>PCI express PCB kortkankonnektor</t>
-  </si>
-  <si>
-    <t>TK511_Blindkort.PcbDoc, TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc, TK516_LINREG-PSU.PcbDoc</t>
-  </si>
-  <si>
-    <t>PCB feature, [NoParam]</t>
-  </si>
-  <si>
-    <t>3221</t>
-  </si>
-  <si>
-    <t>MPTC-02-16-02-01-03-L-RA-SD</t>
-  </si>
-  <si>
-    <t>SAMTEC Connector</t>
-  </si>
-  <si>
-    <t>TK531_Utgangstrinn.PcbDoc, TK532_Kondensatorkort.PcbDoc</t>
-  </si>
-  <si>
-    <t>SAMTEC</t>
-  </si>
-  <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t>Samtec</t>
-  </si>
-  <si>
-    <t>200-MPTC0216213LRASD</t>
-  </si>
-  <si>
-    <t>4473</t>
-  </si>
-  <si>
-    <t>B3B-XH-A (LF)(SN)</t>
-  </si>
-  <si>
-    <t>JST 3pin (pris pr. stk.)</t>
-  </si>
-  <si>
-    <t>J1, J2, J3, J4, J5, J6</t>
-  </si>
-  <si>
-    <t>JST</t>
-  </si>
-  <si>
-    <t>1516277</t>
-  </si>
-  <si>
-    <t>B3B-XH-A(LF)(SN)</t>
-  </si>
-  <si>
-    <t>RSComponents</t>
-  </si>
-  <si>
-    <t>8201557P</t>
-  </si>
-  <si>
-    <t>3259</t>
-  </si>
-  <si>
-    <t>Header 2X17 Shrouded</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>J2, J7</t>
-  </si>
-  <si>
-    <t>TK511_Blindkort.PcbDoc, TK502_Frontpanel_LEDs.PcbDoc</t>
-  </si>
-  <si>
-    <t>Amphenol</t>
-  </si>
-  <si>
-    <t>2215313</t>
-  </si>
-  <si>
-    <t>5095</t>
-  </si>
-  <si>
-    <t>Header 1x3</t>
-  </si>
-  <si>
-    <t>2,54mm pitch</t>
-  </si>
-  <si>
-    <t>J3, J4, J5, J6, J7</t>
-  </si>
-  <si>
-    <t>TK511_Blindkort.PcbDoc</t>
-  </si>
-  <si>
-    <t>3690124</t>
-  </si>
-  <si>
-    <t>3222</t>
-  </si>
-  <si>
-    <t>PCI_Express-36P</t>
-  </si>
-  <si>
-    <t>J51000, J51001, J51002, J51003, J51004, J51005, J51007, J51008, J51028</t>
-  </si>
-  <si>
-    <t>TK510_Signalbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>FCI</t>
-  </si>
-  <si>
-    <t>1144435</t>
-  </si>
-  <si>
-    <t>4043</t>
-  </si>
-  <si>
-    <t>B2B-XH-A (LF)(SN)</t>
-  </si>
-  <si>
-    <t>J51006, J51012, J51013, J51014, J51015, J51016, J51017, J51021, J51022, J51023, J51024, J51025, J51026, J51029, J51030, J51031, J51032, J51033, J51034, J51035, J51036, J51037, J51038, J51039, J51040, J51041, J51042, J51043, J51044, J51045, J51046, J51047, J51048, J51049, J51050</t>
-  </si>
-  <si>
-    <t>1516276</t>
-  </si>
-  <si>
-    <t>B2B-XH-A(LF)(SN)</t>
-  </si>
-  <si>
-    <t>8201554</t>
-  </si>
-  <si>
-    <t>3224</t>
-  </si>
-  <si>
-    <t>Header 2X5 Shrouded</t>
-  </si>
-  <si>
-    <t>J51009, J51010, J51011, J51018, J51019, J51020</t>
-  </si>
-  <si>
-    <t>2215304</t>
-  </si>
-  <si>
-    <t>J51027</t>
-  </si>
-  <si>
-    <t>3046</t>
-  </si>
-  <si>
-    <t>B4B-XH-A (LF)(SN)</t>
-  </si>
-  <si>
-    <t>JST 4pin (pris pr. stk.)</t>
-  </si>
-  <si>
-    <t>J52000, J52002, J53003, J53004, J53005</t>
-  </si>
-  <si>
-    <t>TK520_GDT-Trafo.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>1516278</t>
-  </si>
-  <si>
-    <t>B4B-XH-A -LF-SN</t>
-  </si>
-  <si>
-    <t>JST 2pin (pris pr. stk.)</t>
-  </si>
-  <si>
-    <t>J52001, J53006, J53008</t>
-  </si>
-  <si>
-    <t>3220</t>
-  </si>
-  <si>
-    <t>MPSC-02-16-02-7.70-03-L-V-LC</t>
-  </si>
-  <si>
-    <t>J53000, J53001, J53002</t>
-  </si>
-  <si>
-    <t>200-C02160277003LVLC</t>
-  </si>
-  <si>
-    <t>J53007</t>
-  </si>
-  <si>
-    <t>3646</t>
-  </si>
-  <si>
-    <t>0R</t>
-  </si>
-  <si>
-    <t>0.1W 1% Thick film resistor, Jumper</t>
-  </si>
-  <si>
-    <t>JP1, R3, R4, R13, R14, R23, R24</t>
-  </si>
-  <si>
-    <t>TK516_LINREG-PSU.PcbDoc, TK502_Frontpanel_LEDs.PcbDoc</t>
-  </si>
-  <si>
-    <t>multicomp</t>
-  </si>
-  <si>
-    <t>2447060</t>
-  </si>
-  <si>
-    <t>6201</t>
-  </si>
-  <si>
-    <t>Spole 15H</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>2747875</t>
-  </si>
-  <si>
-    <t>Wirewound Inductor, 15 µH, 2.8 ohm, 20 MHz, 130 mA</t>
-  </si>
-  <si>
-    <t>4718</t>
-  </si>
-  <si>
-    <t>SK-454-75-SA</t>
-  </si>
-  <si>
-    <t>Heatsink</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>FischerElektronik</t>
-  </si>
-  <si>
-    <t>1850030</t>
-  </si>
-  <si>
-    <t>3242</t>
-  </si>
-  <si>
-    <t>KortStøtte 84mm</t>
-  </si>
-  <si>
-    <t>M51000, M51001, M51002, M51003, M51004, M51005, M51006, M51007, M51008, M51009, M51010, M51011, M51012, M51013, M51014, M51015, M51016, M51017</t>
-  </si>
-  <si>
-    <t>4028</t>
-  </si>
-  <si>
-    <t>KortStøtte 50mm</t>
-  </si>
-  <si>
-    <t>Støtter kort i bakplan</t>
-  </si>
-  <si>
-    <t>M53000, M53001, M53002, M53003, M53004, M53005</t>
-  </si>
-  <si>
-    <t>4877</t>
-  </si>
-  <si>
-    <t>G4PC50W</t>
-  </si>
-  <si>
-    <t>IGBT, 600V, 55A</t>
-  </si>
-  <si>
-    <t>Q1, Q2</t>
-  </si>
-  <si>
-    <t>International Rectifier</t>
-  </si>
-  <si>
-    <t>8650632</t>
-  </si>
-  <si>
-    <t>3085</t>
-  </si>
-  <si>
-    <t>BSH201</t>
-  </si>
-  <si>
-    <t>P-Channel MOSFET 300mA</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q53003, Q53004, Q53005</t>
-  </si>
-  <si>
-    <t>TK514_Interrupter.PcbDoc, TK513_Limiter.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>NXP Semiconductors</t>
-  </si>
-  <si>
-    <t>1758073</t>
-  </si>
-  <si>
-    <t>3075</t>
-  </si>
-  <si>
-    <t>2N7002</t>
-  </si>
-  <si>
-    <t>N-Channel MOSFET 300mA</t>
-  </si>
-  <si>
-    <t>Q1, Q53000, Q53001, Q53002</t>
-  </si>
-  <si>
-    <t>TK513_Limiter.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>Nexperia, [NoParam]</t>
-  </si>
-  <si>
-    <t>1829184</t>
-  </si>
-  <si>
-    <t>Q3, Q5, Q51003, Q51004, Q51005, Q51009, Q51010, Q51011, Q51016, Q51017, Q51018, Q51020, Q51021</t>
-  </si>
-  <si>
-    <t>Q4, Q51000, Q51001, Q51002, Q51006, Q51007, Q51008, Q51012, Q51013, Q51014, Q51015, Q51019</t>
-  </si>
-  <si>
-    <t>5228</t>
-  </si>
-  <si>
-    <t>560R</t>
-  </si>
-  <si>
-    <t>0.1W 1% Thick film resistor</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>2447397</t>
-  </si>
-  <si>
-    <t>3890</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0.25W 1% Generic resistor</t>
-  </si>
-  <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>9341145</t>
-  </si>
-  <si>
-    <t>5264</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R1, R2, R11, R12, R21, R22, R53000, R53001, R53002, R53006</t>
-  </si>
-  <si>
-    <t>TK502_Frontpanel_LEDs.PcbDoc, TK530_Kraftbakplan.PcbDoc</t>
-  </si>
-  <si>
-    <t>2447230</t>
-  </si>
-  <si>
-    <t>5339</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>R1, R3</t>
-  </si>
-  <si>
-    <t>2447272</t>
-  </si>
-  <si>
-    <t>R1, R51000, R51002, R51003, R51004, R51005, R51010, R51011, R51012, R51013, R51014, R51015, R51016, R51017, R51021, R51022, R51023, R51024, R51025, R51026, R51027, R51028, R51029, R51030, R51031, R51032, R51033, R51034, R51035, R51036, R51037, R51038, R51039, R51040, R51041, R51042, R51043</t>
-  </si>
-  <si>
-    <t>5040</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>5657</t>
-  </si>
-  <si>
     <t>2447233</t>
   </si>
   <si>
@@ -1002,7 +1155,10 @@
     <t>330R</t>
   </si>
   <si>
-    <t>R2, R7, R51007, R51008, R51009, R51018, R51019, R51020, R51044, R51045, R51046, R51047, R51048, R51049</t>
+    <t>R2, R5, R6, R7, R8, R9, R10, R15, R16, R17, R18, R19, R20, R25, R26, R27, R28, R29, R30, R51007, R51008, R51009, R51018, R51019, R51020, R51044, R51045, R51046, R51047, R51048, R51049</t>
+  </si>
+  <si>
+    <t>TK512_Optisk_Mottaker.PcbDoc, TK502_Frontpanel_LEDs.PcbDoc, TK510_Signalbakplan.PcbDoc</t>
   </si>
   <si>
     <t>2447339</t>
@@ -1020,42 +1176,42 @@
     <t>2447448</t>
   </si>
   <si>
+    <t>5340</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R3, R4, R6, R7, R8, R9</t>
+  </si>
+  <si>
+    <t>TK531_Utgangstrinn.PcbDoc, TK514_Interrupter.PcbDoc</t>
+  </si>
+  <si>
+    <t>2073358</t>
+  </si>
+  <si>
     <t>5357</t>
   </si>
   <si>
     <t>20k</t>
   </si>
   <si>
-    <t>5340</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>R3, R4, R6, R7, R8, R9</t>
-  </si>
-  <si>
-    <t>TK531_Utgangstrinn.PcbDoc, TK514_Interrupter.PcbDoc</t>
-  </si>
-  <si>
-    <t>Multicomp, [NoParam]</t>
-  </si>
-  <si>
-    <t>Farnell, [NoParam]</t>
-  </si>
-  <si>
-    <t>2073358, [NoParam]</t>
+    <t>R3, R6</t>
+  </si>
+  <si>
+    <t>2447293</t>
+  </si>
+  <si>
+    <t>3778</t>
+  </si>
+  <si>
+    <t>100k</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>3778</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
     <t>2447226</t>
   </si>
   <si>
@@ -1089,13 +1245,13 @@
     <t>R5</t>
   </si>
   <si>
-    <t>R5, R6, R7, R8, R9, R10, R15, R16, R17, R18, R19, R20, R25, R26, R27, R28, R29, R30</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>2447293</t>
+    <t>3759</t>
+  </si>
+  <si>
+    <t>16k</t>
+  </si>
+  <si>
+    <t>R52502</t>
   </si>
   <si>
     <t>4889</t>
@@ -1110,6 +1266,93 @@
     <t>2447378</t>
   </si>
   <si>
+    <t>6252</t>
+  </si>
+  <si>
+    <t>Automasjonsvelger Grønn</t>
+  </si>
+  <si>
+    <t>Switch Actuator, Siemens 22mm Pushbutton Switches</t>
+  </si>
+  <si>
+    <t>S1, S3</t>
+  </si>
+  <si>
+    <t>2695623</t>
+  </si>
+  <si>
+    <t>6257</t>
+  </si>
+  <si>
+    <t>Automasjonsbryter NO</t>
+  </si>
+  <si>
+    <t>Contact Block, SPST-NO, 10 A, 500 V, 1 Pole, 3SU Series, Screw</t>
+  </si>
+  <si>
+    <t>S1, S3, S3B, S3C</t>
+  </si>
+  <si>
+    <t>2695771</t>
+  </si>
+  <si>
+    <t>6253</t>
+  </si>
+  <si>
+    <t>Automasjonsvelger Rød</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>2695622</t>
+  </si>
+  <si>
+    <t>6256</t>
+  </si>
+  <si>
+    <t>Automasjonsbryter NC</t>
+  </si>
+  <si>
+    <t>Contact Block, SPST-NC, 10 A, 500 V, 1 Pole, 3SU Series, Screw</t>
+  </si>
+  <si>
+    <t>S2, S3B, S4, S4B, S5, S5B</t>
+  </si>
+  <si>
+    <t>2695772</t>
+  </si>
+  <si>
+    <t>6255</t>
+  </si>
+  <si>
+    <t>Automasjonsvelger Nødstopp</t>
+  </si>
+  <si>
+    <t>Switch Actuator, Siemens 22mm Emergency Stop Mushroom Pushbutton Switches</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>2695631</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>Automasjonsvelger Vrider bistabil</t>
+  </si>
+  <si>
+    <t>Switch Actuator, Siemens 22mm Selector Switches</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>2695653</t>
+  </si>
+  <si>
     <t>3215</t>
   </si>
   <si>
@@ -1137,6 +1380,9 @@
     <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8</t>
   </si>
   <si>
+    <t>TK512_Optisk_Mottaker.PcbDoc, TK513_Limiter.PcbDoc, TK514_Interrupter.PcbDoc</t>
+  </si>
+  <si>
     <t>3211</t>
   </si>
   <si>
@@ -1173,6 +1419,12 @@
     <t>74HC14</t>
   </si>
   <si>
+    <t>Hex Schmitt trigger</t>
+  </si>
+  <si>
+    <t>U1, U2, U7</t>
+  </si>
+  <si>
     <t>1607772</t>
   </si>
   <si>
@@ -1209,6 +1461,9 @@
     <t>74HCT1G125GW-Q100H</t>
   </si>
   <si>
+    <t>Buffer / Line Driver, 74HCT1G125, 4.5 V to 5.5 V, TSSOP-5</t>
+  </si>
+  <si>
     <t>U2, U3</t>
   </si>
   <si>
@@ -1221,12 +1476,6 @@
     <t>77174HCT1G125GWQ100H</t>
   </si>
   <si>
-    <t>Hex Schmitt trigger</t>
-  </si>
-  <si>
-    <t>U2, U7</t>
-  </si>
-  <si>
     <t>6202</t>
   </si>
   <si>
@@ -1278,16 +1527,37 @@
     <t>2510119</t>
   </si>
   <si>
+    <t>1770411</t>
+  </si>
+  <si>
     <t>3444</t>
   </si>
   <si>
     <t>MOCD207R2M</t>
   </si>
   <si>
+    <t>Dual Optocoupler</t>
+  </si>
+  <si>
     <t>U51000</t>
   </si>
   <si>
     <t>1086672</t>
+  </si>
+  <si>
+    <t>3304</t>
+  </si>
+  <si>
+    <t>Rekkeklemme 2.5mm2</t>
+  </si>
+  <si>
+    <t>DIN Rail mount terminal block</t>
+  </si>
+  <si>
+    <t>X1.1, X1.10, X1.11, X1.12, X1.13, X1.14, X1.15, X1.16, X1.17, X1.18, X1.19, X1.2, X1.20, X1.21, X1.22, X1.26, X1.27, X1.3, X1.4, X1.5, X1.6, X1.7, X1.8, X1.9</t>
+  </si>
+  <si>
+    <t>2061376</t>
   </si>
 </sst>
 </file>
@@ -1669,11 +1939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EDB8B8-9AC7-4E6F-821F-AD7B77156525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF7BA51-AC65-4FA6-A879-8A54E70085F9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1789,7 +2059,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1809,7 +2079,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>30</v>
@@ -1867,7 +2137,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1877,7 +2147,9 @@
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1885,16 +2157,16 @@
         <v>42</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1904,30 +2176,30 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>24</v>
@@ -1943,7 +2215,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1960,13 +2232,13 @@
         <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>24</v>
@@ -1992,24 +2264,26 @@
       <c r="C8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2024,29 +2298,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -2061,16 +2337,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>36</v>
@@ -2078,14 +2354,12 @@
       <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2100,29 +2374,31 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G11" s="4">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -2132,34 +2408,36 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2174,29 +2452,31 @@
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2206,36 +2486,36 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2250,31 +2530,31 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="G15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2289,29 +2569,31 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2321,153 +2603,177 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="4">
+        <v>59.86</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>59.86</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="G18" s="4">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="G19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G20" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2477,36 +2783,36 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G21" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2516,69 +2822,63 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="G22" s="4">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G23" s="4">
         <v>6</v>
@@ -2590,17 +2890,11 @@
         <v>24</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>118</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2611,35 +2905,41 @@
         <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="G24" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2650,31 +2950,31 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G25" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -2684,75 +2984,85 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G26" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0.12722</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="G27" s="4">
-        <v>6</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2762,35 +3072,31 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="E28" s="3" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -2799,233 +3105,227 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="G29" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.52175000000000005</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G30" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>118</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="G31" s="4">
         <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="G32" s="4">
         <v>8</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="P32" s="4">
-        <v>0.12722</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="G33" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="P33" s="4">
-        <v>0.52175000000000005</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="Q33" s="4">
-        <v>2.61</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3033,71 +3333,85 @@
         <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="G34" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="E35" s="3" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="G35" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -3106,33 +3420,37 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="G36" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -3141,142 +3459,128 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="G37" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="P37" s="4">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>25.86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" ht="195" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="G38" s="4">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="P38" s="4">
-        <v>0.54100000000000004</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="Q38" s="4">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="G39" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -3286,167 +3590,173 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="G40" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="G41" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-    </row>
-    <row r="42" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P41" s="4">
+        <v>9.91</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>29.73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="G42" s="4">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="P42" s="4">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>7.14</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="G43" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -3456,34 +3766,34 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="4"/>
+        <v>278</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="E44" s="3" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -3493,187 +3803,151 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="G45" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
       <c r="B46" s="3" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="G46" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="P46" s="4">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>1.42</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
     </row>
     <row r="47" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="G47" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="P47" s="4">
-        <v>9.91</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>29.73</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
     </row>
     <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="G48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -3683,36 +3957,36 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="G49" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -3722,35 +3996,31 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D50" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="E50" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="G50" s="4">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>257</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -3759,37 +4029,31 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="G51" s="4">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>257</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -3803,101 +4067,131 @@
         <v>17</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G52" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
+        <v>324</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="G53" s="4">
-        <v>18</v>
-      </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
     </row>
-    <row r="54" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="G54" s="4">
-        <v>6</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -3908,221 +4202,191 @@
         <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>273</v>
+        <v>340</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>275</v>
+        <v>342</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="G55" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>276</v>
+        <v>30</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
     </row>
-    <row r="56" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c r="G56" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>286</v>
+        <v>350</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="G57" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
     </row>
-    <row r="58" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="240" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c r="G58" s="4">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
     </row>
-    <row r="59" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G59" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -4133,31 +4397,31 @@
         <v>17</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="G60" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -4167,36 +4431,36 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>107</v>
+        <v>368</v>
       </c>
       <c r="G61" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -4206,36 +4470,36 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="G62" s="4">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -4245,27 +4509,27 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="G63" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>30</v>
@@ -4274,7 +4538,7 @@
         <v>24</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -4284,36 +4548,36 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>134</v>
+        <v>382</v>
       </c>
       <c r="G64" s="4">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -4323,33 +4587,37 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
     </row>
-    <row r="65" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -4363,31 +4631,31 @@
         <v>17</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>48</v>
+        <v>368</v>
       </c>
       <c r="G66" s="4">
         <v>1</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -4397,36 +4665,36 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
     </row>
-    <row r="67" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="G67" s="4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>43</v>
+        <v>397</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -4441,29 +4709,31 @@
         <v>17</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D68" s="4"/>
+        <v>400</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="E68" s="3" t="s">
-        <v>325</v>
+        <v>401</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G68" s="4">
         <v>1</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -4473,24 +4743,22 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
     </row>
-    <row r="69" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
       <c r="B69" s="3" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G69" s="4">
         <v>1</v>
@@ -4506,36 +4774,36 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
     </row>
-    <row r="70" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>329</v>
+        <v>405</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>331</v>
+        <v>407</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>332</v>
+        <v>184</v>
       </c>
       <c r="G70" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>333</v>
+        <v>30</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -4550,29 +4818,31 @@
         <v>17</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>246</v>
+        <v>409</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D71" s="4"/>
+        <v>410</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="E71" s="3" t="s">
-        <v>336</v>
+        <v>412</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="G71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>252</v>
+        <v>413</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -4582,36 +4852,36 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>337</v>
+        <v>414</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>338</v>
+        <v>415</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>296</v>
+        <v>416</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="G72" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -4622,35 +4892,33 @@
       <c r="Q72" s="4"/>
     </row>
     <row r="73" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A73" s="4"/>
       <c r="B73" s="3" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>344</v>
+        <v>107</v>
       </c>
       <c r="G73" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -4665,29 +4933,31 @@
         <v>17</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D74" s="4"/>
+        <v>424</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="E74" s="3" t="s">
-        <v>349</v>
+        <v>426</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="G74" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>339</v>
+        <v>427</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -4697,36 +4967,34 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
     </row>
-    <row r="75" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="75" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
       <c r="B75" s="3" t="s">
-        <v>319</v>
+        <v>428</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>320</v>
+        <v>429</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>296</v>
+        <v>430</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>350</v>
+        <v>431</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="G75" s="4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -4737,33 +5005,33 @@
       <c r="Q75" s="4"/>
     </row>
     <row r="76" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A76" s="4"/>
       <c r="B76" s="3" t="s">
-        <v>327</v>
+        <v>433</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D76" s="4"/>
+        <v>434</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="E76" s="3" t="s">
-        <v>351</v>
+        <v>436</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="G76" s="4">
         <v>1</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -4773,144 +5041,156 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
     </row>
-    <row r="77" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>296</v>
+        <v>440</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>169</v>
+        <v>442</v>
       </c>
       <c r="G77" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
+        <v>443</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="G78" s="4">
-        <v>2</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>362</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
     </row>
-    <row r="79" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>17</v>
+        <v>450</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="G79" s="4">
-        <v>8</v>
-      </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
     </row>
-    <row r="80" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>363</v>
+        <v>454</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>364</v>
+        <v>455</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>211</v>
+        <v>456</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G80" s="4">
-        <v>11</v>
-      </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>457</v>
+      </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -4919,46 +5199,40 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
     </row>
-    <row r="81" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>366</v>
+        <v>458</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>367</v>
+        <v>459</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>368</v>
+        <v>460</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>369</v>
+        <v>461</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="G81" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>370</v>
+        <v>162</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -4969,68 +5243,76 @@
         <v>17</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>372</v>
+        <v>463</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>374</v>
+        <v>465</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>369</v>
+        <v>466</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>36</v>
+        <v>368</v>
       </c>
       <c r="G82" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>150</v>
+        <v>452</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
+        <v>467</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D83" s="4"/>
+        <v>469</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="E83" s="3" t="s">
-        <v>369</v>
+        <v>466</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G83" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>157</v>
+        <v>470</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>378</v>
+        <v>471</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -5040,66 +5322,74 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>380</v>
+        <v>473</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>381</v>
+        <v>474</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>382</v>
+        <v>475</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G84" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>383</v>
+        <v>476</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>370</v>
+        <v>477</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>380</v>
+        <v>473</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-    </row>
-    <row r="85" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="P84" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>384</v>
+        <v>479</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>385</v>
+        <v>480</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>374</v>
+        <v>481</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>382</v>
+        <v>482</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>36</v>
@@ -5108,311 +5398,221 @@
         <v>3</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>386</v>
+        <v>131</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-    </row>
-    <row r="86" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>388</v>
+        <v>484</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>17</v>
+        <v>486</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="G86" s="4">
         <v>2</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>283</v>
+        <v>488</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>391</v>
+        <v>489</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N86" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O86" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="P86" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="Q86" s="4">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+    </row>
+    <row r="87" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>376</v>
+        <v>490</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>377</v>
+        <v>491</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>394</v>
+        <v>492</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>395</v>
+        <v>493</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G87" s="4">
         <v>2</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>157</v>
+        <v>494</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
+        <v>495</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="P87" s="4">
+        <v>1.96</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>186.58</v>
+      </c>
     </row>
     <row r="88" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>396</v>
+        <v>497</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>397</v>
+        <v>498</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>398</v>
+        <v>499</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>399</v>
+        <v>500</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="G88" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>400</v>
+        <v>501</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>397</v>
+        <v>498</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="P88" s="4">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Q88" s="4">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+    </row>
+    <row r="89" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>401</v>
+        <v>502</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>402</v>
+        <v>503</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>403</v>
+        <v>504</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>404</v>
+        <v>505</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G89" s="4">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>405</v>
+        <v>30</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
     </row>
-    <row r="90" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G90" s="4">
-        <v>2</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-    </row>
-    <row r="91" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G91" s="4">
-        <v>1</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="P91" s="4">
-        <v>1.75</v>
-      </c>
-      <c r="Q91" s="4">
-        <v>8.76</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="14" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="13" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>